--- a/data/trans_orig/IP19C01-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP19C01-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1883DB11-B07C-4C34-968F-1EED312F9548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72A45838-BEC3-4A85-A320-8517B5265189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{69E73B41-D1B8-44F5-8804-87A95B1691CF}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{E835A73C-1DD0-4E68-8218-92806B61C1AA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,12 +68,129 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>27,31%</t>
   </si>
   <si>
@@ -101,9 +218,6 @@
     <t>34,8%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>72,69%</t>
   </si>
   <si>
@@ -131,64 +245,61 @@
     <t>74,88%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -248,117 +359,6 @@
     <t>71,39%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
     <t>28,62%</t>
   </si>
   <si>
@@ -416,6 +416,108 @@
     <t>Menores según su última visita al dentista fue por revisión o chequeo en 2012 (Tasa respuesta: 49,21%)</t>
   </si>
   <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
     <t>21,38%</t>
   </si>
   <si>
@@ -470,52 +572,52 @@
     <t>76,1%</t>
   </si>
   <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
   </si>
   <si>
     <t>16,21%</t>
@@ -572,108 +674,6 @@
     <t>84,65%</t>
   </si>
   <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
     <t>24,02%</t>
   </si>
   <si>
@@ -731,6 +731,114 @@
     <t>Menores según su última visita al dentista fue por revisión o chequeo en 2015 (Tasa respuesta: 49,15%)</t>
   </si>
   <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
     <t>21,4%</t>
   </si>
   <si>
@@ -779,58 +887,58 @@
     <t>75,07%</t>
   </si>
   <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
   </si>
   <si>
     <t>20,35%</t>
@@ -887,114 +995,6 @@
     <t>83,51%</t>
   </si>
   <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
     <t>24,08%</t>
   </si>
   <si>
@@ -1052,6 +1052,102 @@
     <t>Menores según su última visita al dentista fue por revisión o chequeo en 2023 (Tasa respuesta: 58,54%)</t>
   </si>
   <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
     <t>20,74%</t>
   </si>
   <si>
@@ -1106,58 +1202,46 @@
     <t>86,77%</t>
   </si>
   <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
   </si>
   <si>
     <t>12,55%</t>
@@ -1212,90 +1296,6 @@
   </si>
   <si>
     <t>91,1%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
   </si>
   <si>
     <t>17,46%</t>
@@ -1741,7 +1741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4A9DD6-04A1-494A-B1E7-63F508A53FA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10967F68-88BF-4AC6-B2E4-C6E2B41A57E2}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1859,10 +1859,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>30490</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1874,10 +1874,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>35576</v>
+        <v>9069</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1889,10 +1889,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="N4" s="7">
-        <v>66066</v>
+        <v>9070</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1910,10 +1910,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="D5" s="7">
-        <v>81141</v>
+        <v>13729</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1925,10 +1925,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="I5" s="7">
-        <v>74485</v>
+        <v>8490</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1940,10 +1940,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>242</v>
+        <v>29</v>
       </c>
       <c r="N5" s="7">
-        <v>155626</v>
+        <v>22218</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1961,54 +1961,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="D6" s="7">
-        <v>111631</v>
+        <v>13729</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="I6" s="7">
-        <v>110061</v>
+        <v>17559</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
-        <v>344</v>
+        <v>40</v>
       </c>
       <c r="N6" s="7">
-        <v>221692</v>
+        <v>31288</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2020,13 +2020,13 @@
         <v>24294</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>29</v>
@@ -2035,13 +2035,13 @@
         <v>19250</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>65</v>
@@ -2050,13 +2050,13 @@
         <v>43544</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2071,13 +2071,13 @@
         <v>44165</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>58</v>
@@ -2086,13 +2086,13 @@
         <v>38863</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>126</v>
@@ -2101,13 +2101,13 @@
         <v>83029</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2122,13 +2122,13 @@
         <v>68459</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
         <v>87</v>
@@ -2137,13 +2137,13 @@
         <v>58113</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>191</v>
@@ -2152,66 +2152,66 @@
         <v>126573</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D10" s="7">
-        <v>27734</v>
+        <v>30490</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>56</v>
+      </c>
+      <c r="I10" s="7">
+        <v>35576</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="7">
-        <v>45</v>
-      </c>
-      <c r="I10" s="7">
-        <v>35094</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>102</v>
+      </c>
+      <c r="N10" s="7">
+        <v>66066</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="7">
-        <v>85</v>
-      </c>
-      <c r="N10" s="7">
-        <v>62829</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2220,49 +2220,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="D11" s="7">
-        <v>62309</v>
+        <v>81141</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>118</v>
+      </c>
+      <c r="I11" s="7">
+        <v>74485</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>79</v>
-      </c>
-      <c r="I11" s="7">
-        <v>60895</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>242</v>
+      </c>
+      <c r="N11" s="7">
+        <v>155626</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="7">
-        <v>170</v>
-      </c>
-      <c r="N11" s="7">
-        <v>123203</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2271,102 +2271,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="D12" s="7">
-        <v>90043</v>
+        <v>111631</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
-        <v>124</v>
+        <v>174</v>
       </c>
       <c r="I12" s="7">
-        <v>95989</v>
+        <v>110061</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
-        <v>255</v>
+        <v>344</v>
       </c>
       <c r="N12" s="7">
-        <v>186032</v>
+        <v>221692</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>20993</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>32</v>
+      </c>
+      <c r="I13" s="7">
+        <v>19722</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="7">
-        <v>11</v>
-      </c>
-      <c r="I13" s="7">
-        <v>9069</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>65</v>
+      </c>
+      <c r="N13" s="7">
+        <v>40715</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M13" s="7">
-        <v>11</v>
-      </c>
-      <c r="N13" s="7">
-        <v>9070</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2375,25 +2375,25 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="D14" s="7">
-        <v>13729</v>
+        <v>56876</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="H14" s="7">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="I14" s="7">
-        <v>8490</v>
+        <v>49486</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -2405,10 +2405,10 @@
         <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="N14" s="7">
-        <v>22218</v>
+        <v>106362</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -2426,49 +2426,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="D15" s="7">
-        <v>13729</v>
+        <v>77869</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="I15" s="7">
-        <v>17559</v>
+        <v>69208</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
-        <v>40</v>
+        <v>237</v>
       </c>
       <c r="N15" s="7">
-        <v>31288</v>
+        <v>147077</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2479,10 +2479,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D16" s="7">
-        <v>20993</v>
+        <v>27734</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>88</v>
@@ -2494,10 +2494,10 @@
         <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="I16" s="7">
-        <v>19722</v>
+        <v>35094</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>91</v>
@@ -2509,10 +2509,10 @@
         <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="N16" s="7">
-        <v>40715</v>
+        <v>62829</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>94</v>
@@ -2530,10 +2530,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D17" s="7">
-        <v>56876</v>
+        <v>62309</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>97</v>
@@ -2545,10 +2545,10 @@
         <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I17" s="7">
-        <v>49486</v>
+        <v>60895</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>100</v>
@@ -2560,10 +2560,10 @@
         <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N17" s="7">
-        <v>106362</v>
+        <v>123203</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>103</v>
@@ -2581,49 +2581,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D18" s="7">
-        <v>77869</v>
+        <v>90043</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="I18" s="7">
-        <v>69208</v>
+        <v>95989</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="N18" s="7">
-        <v>147077</v>
+        <v>186032</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2742,13 +2742,13 @@
         <v>361731</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H21" s="7">
         <v>522</v>
@@ -2757,13 +2757,13 @@
         <v>350930</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M21" s="7">
         <v>1067</v>
@@ -2772,13 +2772,13 @@
         <v>712661</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2799,7 +2799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1552253-8085-405C-9F53-36FFB2C2F2F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71073FE-B96B-44C7-AF22-1D60858064D9}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2917,10 +2917,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>24652</v>
+        <v>4718</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>125</v>
@@ -2932,10 +2932,10 @@
         <v>127</v>
       </c>
       <c r="H4" s="7">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>39788</v>
+        <v>3360</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>128</v>
@@ -2947,10 +2947,10 @@
         <v>130</v>
       </c>
       <c r="M4" s="7">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="N4" s="7">
-        <v>64440</v>
+        <v>8079</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>131</v>
@@ -2968,10 +2968,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="D5" s="7">
-        <v>90670</v>
+        <v>8322</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>134</v>
@@ -2983,10 +2983,10 @@
         <v>136</v>
       </c>
       <c r="H5" s="7">
-        <v>108</v>
+        <v>11</v>
       </c>
       <c r="I5" s="7">
-        <v>72811</v>
+        <v>9530</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>137</v>
@@ -2998,10 +2998,10 @@
         <v>139</v>
       </c>
       <c r="M5" s="7">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="N5" s="7">
-        <v>163482</v>
+        <v>17852</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>140</v>
@@ -3019,54 +3019,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>169</v>
+        <v>14</v>
       </c>
       <c r="D6" s="7">
-        <v>115322</v>
+        <v>13040</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c r="I6" s="7">
-        <v>112599</v>
+        <v>12890</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
-        <v>339</v>
+        <v>29</v>
       </c>
       <c r="N6" s="7">
-        <v>227922</v>
+        <v>25931</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3096,7 +3096,7 @@
         <v>146</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>147</v>
@@ -3150,7 +3150,7 @@
         <v>155</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="M8" s="7">
         <v>123</v>
@@ -3180,13 +3180,13 @@
         <v>62981</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
         <v>86</v>
@@ -3195,13 +3195,13 @@
         <v>62521</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>175</v>
@@ -3210,27 +3210,27 @@
         <v>125502</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D10" s="7">
-        <v>15614</v>
+        <v>24652</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>159</v>
@@ -3242,10 +3242,10 @@
         <v>161</v>
       </c>
       <c r="H10" s="7">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="I10" s="7">
-        <v>22184</v>
+        <v>39788</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>162</v>
@@ -3257,10 +3257,10 @@
         <v>164</v>
       </c>
       <c r="M10" s="7">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="N10" s="7">
-        <v>37798</v>
+        <v>64440</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>165</v>
@@ -3278,10 +3278,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="D11" s="7">
-        <v>80687</v>
+        <v>90670</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>168</v>
@@ -3293,10 +3293,10 @@
         <v>170</v>
       </c>
       <c r="H11" s="7">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="I11" s="7">
-        <v>70793</v>
+        <v>72811</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>171</v>
@@ -3308,10 +3308,10 @@
         <v>173</v>
       </c>
       <c r="M11" s="7">
-        <v>201</v>
+        <v>240</v>
       </c>
       <c r="N11" s="7">
-        <v>151479</v>
+        <v>163482</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>174</v>
@@ -3329,63 +3329,63 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="D12" s="7">
-        <v>96301</v>
+        <v>115322</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="I12" s="7">
-        <v>92977</v>
+        <v>112599</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
-        <v>251</v>
+        <v>339</v>
       </c>
       <c r="N12" s="7">
-        <v>189277</v>
+        <v>227922</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="D13" s="7">
-        <v>4718</v>
+        <v>22252</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>177</v>
@@ -3397,10 +3397,10 @@
         <v>179</v>
       </c>
       <c r="H13" s="7">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="I13" s="7">
-        <v>3360</v>
+        <v>18699</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>180</v>
@@ -3412,10 +3412,10 @@
         <v>182</v>
       </c>
       <c r="M13" s="7">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="N13" s="7">
-        <v>8079</v>
+        <v>40951</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>183</v>
@@ -3424,7 +3424,7 @@
         <v>184</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,49 +3433,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="D14" s="7">
-        <v>8322</v>
+        <v>57501</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>87</v>
+      </c>
+      <c r="I14" s="7">
+        <v>56335</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="H14" s="7">
-        <v>11</v>
-      </c>
-      <c r="I14" s="7">
-        <v>9530</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>176</v>
+      </c>
+      <c r="N14" s="7">
+        <v>113836</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="M14" s="7">
-        <v>20</v>
-      </c>
-      <c r="N14" s="7">
-        <v>17852</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3484,49 +3484,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="D15" s="7">
-        <v>13040</v>
+        <v>79753</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="I15" s="7">
-        <v>12890</v>
+        <v>75034</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
-        <v>29</v>
+        <v>239</v>
       </c>
       <c r="N15" s="7">
-        <v>25931</v>
+        <v>154787</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3537,49 +3537,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D16" s="7">
-        <v>22252</v>
+        <v>15614</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>28</v>
+      </c>
+      <c r="I16" s="7">
+        <v>22184</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="H16" s="7">
-        <v>29</v>
-      </c>
-      <c r="I16" s="7">
-        <v>18699</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>50</v>
+      </c>
+      <c r="N16" s="7">
+        <v>37798</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="M16" s="7">
-        <v>63</v>
-      </c>
-      <c r="N16" s="7">
-        <v>40951</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3588,46 +3588,46 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="D17" s="7">
-        <v>57501</v>
+        <v>80687</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>92</v>
+      </c>
+      <c r="I17" s="7">
+        <v>70793</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="H17" s="7">
-        <v>87</v>
-      </c>
-      <c r="I17" s="7">
-        <v>56335</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>201</v>
+      </c>
+      <c r="N17" s="7">
+        <v>151479</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="M17" s="7">
-        <v>176</v>
-      </c>
-      <c r="N17" s="7">
-        <v>113836</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>210</v>
@@ -3639,49 +3639,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="D18" s="7">
-        <v>79753</v>
+        <v>96301</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I18" s="7">
-        <v>75034</v>
+        <v>92977</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="N18" s="7">
-        <v>154787</v>
+        <v>189277</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,13 +3800,13 @@
         <v>367397</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H21" s="7">
         <v>507</v>
@@ -3815,13 +3815,13 @@
         <v>356021</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M21" s="7">
         <v>1033</v>
@@ -3830,13 +3830,13 @@
         <v>723418</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -3857,7 +3857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF76D1B-9EB1-4468-A385-0C9898520608}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D116419-7635-4557-9715-18F80A784E1F}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3975,49 +3975,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>30302</v>
+        <v>2211</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H4" s="7">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>32717</v>
+        <v>5219</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M4" s="7">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="N4" s="7">
-        <v>63018</v>
+        <v>7430</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4026,49 +4026,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="D5" s="7">
-        <v>78290</v>
+        <v>13266</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H5" s="7">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="I5" s="7">
-        <v>75244</v>
+        <v>9783</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M5" s="7">
-        <v>228</v>
+        <v>25</v>
       </c>
       <c r="N5" s="7">
-        <v>153535</v>
+        <v>23049</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4077,54 +4077,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="D6" s="7">
-        <v>108592</v>
+        <v>15477</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="I6" s="7">
-        <v>107961</v>
+        <v>15002</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
-        <v>324</v>
+        <v>34</v>
       </c>
       <c r="N6" s="7">
-        <v>216553</v>
+        <v>30479</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4136,13 +4136,13 @@
         <v>13207</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -4151,13 +4151,13 @@
         <v>18228</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M7" s="7">
         <v>46</v>
@@ -4166,13 +4166,13 @@
         <v>31435</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,13 +4187,13 @@
         <v>48627</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H8" s="7">
         <v>54</v>
@@ -4202,13 +4202,13 @@
         <v>37610</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M8" s="7">
         <v>117</v>
@@ -4217,13 +4217,13 @@
         <v>86237</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,13 +4238,13 @@
         <v>61834</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
         <v>82</v>
@@ -4253,13 +4253,13 @@
         <v>55838</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>163</v>
@@ -4268,66 +4268,66 @@
         <v>117672</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D10" s="7">
-        <v>21847</v>
+        <v>30302</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>264</v>
+        <v>177</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H10" s="7">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="I10" s="7">
-        <v>23715</v>
+        <v>32717</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M10" s="7">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="N10" s="7">
-        <v>45562</v>
+        <v>63018</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4336,13 +4336,13 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D11" s="7">
-        <v>85503</v>
+        <v>78290</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>273</v>
+        <v>185</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>274</v>
@@ -4351,10 +4351,10 @@
         <v>275</v>
       </c>
       <c r="H11" s="7">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I11" s="7">
-        <v>86919</v>
+        <v>75244</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>276</v>
@@ -4366,10 +4366,10 @@
         <v>278</v>
       </c>
       <c r="M11" s="7">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="N11" s="7">
-        <v>172422</v>
+        <v>153535</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>279</v>
@@ -4387,63 +4387,63 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="D12" s="7">
-        <v>107350</v>
+        <v>108592</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="I12" s="7">
-        <v>110634</v>
+        <v>107961</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="N12" s="7">
-        <v>217984</v>
+        <v>216553</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="D13" s="7">
-        <v>2211</v>
+        <v>21862</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>282</v>
@@ -4455,10 +4455,10 @@
         <v>284</v>
       </c>
       <c r="H13" s="7">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="I13" s="7">
-        <v>5219</v>
+        <v>16578</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>285</v>
@@ -4470,10 +4470,10 @@
         <v>287</v>
       </c>
       <c r="M13" s="7">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="N13" s="7">
-        <v>7430</v>
+        <v>38440</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>288</v>
@@ -4491,10 +4491,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="D14" s="7">
-        <v>13266</v>
+        <v>56288</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>291</v>
@@ -4506,10 +4506,10 @@
         <v>293</v>
       </c>
       <c r="H14" s="7">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="I14" s="7">
-        <v>9783</v>
+        <v>59010</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>294</v>
@@ -4521,10 +4521,10 @@
         <v>296</v>
       </c>
       <c r="M14" s="7">
-        <v>25</v>
+        <v>174</v>
       </c>
       <c r="N14" s="7">
-        <v>23049</v>
+        <v>115297</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>297</v>
@@ -4542,49 +4542,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="D15" s="7">
-        <v>15477</v>
+        <v>78150</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="I15" s="7">
-        <v>15002</v>
+        <v>75588</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
-        <v>34</v>
+        <v>232</v>
       </c>
       <c r="N15" s="7">
-        <v>30479</v>
+        <v>153737</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4595,10 +4595,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D16" s="7">
-        <v>21862</v>
+        <v>21847</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>300</v>
@@ -4610,10 +4610,10 @@
         <v>302</v>
       </c>
       <c r="H16" s="7">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I16" s="7">
-        <v>16578</v>
+        <v>23715</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>303</v>
@@ -4625,10 +4625,10 @@
         <v>305</v>
       </c>
       <c r="M16" s="7">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="N16" s="7">
-        <v>38440</v>
+        <v>45562</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>306</v>
@@ -4646,10 +4646,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="D17" s="7">
-        <v>56288</v>
+        <v>85503</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>309</v>
@@ -4661,10 +4661,10 @@
         <v>311</v>
       </c>
       <c r="H17" s="7">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="I17" s="7">
-        <v>59010</v>
+        <v>86919</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>312</v>
@@ -4676,10 +4676,10 @@
         <v>314</v>
       </c>
       <c r="M17" s="7">
-        <v>174</v>
+        <v>230</v>
       </c>
       <c r="N17" s="7">
-        <v>115297</v>
+        <v>172422</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>315</v>
@@ -4697,49 +4697,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="D18" s="7">
-        <v>78150</v>
+        <v>107350</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="I18" s="7">
-        <v>75588</v>
+        <v>110634</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
-        <v>232</v>
+        <v>292</v>
       </c>
       <c r="N18" s="7">
-        <v>153737</v>
+        <v>217984</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4858,13 +4858,13 @@
         <v>371402</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H21" s="7">
         <v>530</v>
@@ -4873,13 +4873,13 @@
         <v>365024</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M21" s="7">
         <v>1045</v>
@@ -4888,13 +4888,13 @@
         <v>736425</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -4915,7 +4915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EAA6088-6BAF-4FFC-A257-353F8E5F73FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51FDC814-3CF3-4B98-BD25-EAB2F7D15196}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5033,49 +5033,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>34630</v>
+        <v>765</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>337</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>3</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2728</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="H4" s="7">
-        <v>20</v>
-      </c>
-      <c r="I4" s="7">
-        <v>15501</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>4</v>
+      </c>
+      <c r="N4" s="7">
+        <v>3494</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="M4" s="7">
-        <v>62</v>
-      </c>
-      <c r="N4" s="7">
-        <v>50131</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5084,49 +5084,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>169</v>
+        <v>8</v>
       </c>
       <c r="D5" s="7">
-        <v>132320</v>
+        <v>5740</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="7">
+        <v>12</v>
+      </c>
+      <c r="I5" s="7">
+        <v>6791</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>20</v>
+      </c>
+      <c r="N5" s="7">
+        <v>12529</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="H5" s="7">
-        <v>143</v>
-      </c>
-      <c r="I5" s="7">
-        <v>102999</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="M5" s="7">
-        <v>312</v>
-      </c>
-      <c r="N5" s="7">
-        <v>235318</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5135,54 +5135,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>211</v>
+        <v>9</v>
       </c>
       <c r="D6" s="7">
-        <v>166950</v>
+        <v>6505</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
-        <v>163</v>
+        <v>15</v>
       </c>
       <c r="I6" s="7">
-        <v>118500</v>
+        <v>9519</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
-        <v>374</v>
+        <v>24</v>
       </c>
       <c r="N6" s="7">
-        <v>285449</v>
+        <v>16023</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5194,13 +5194,13 @@
         <v>9596</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -5209,13 +5209,13 @@
         <v>10375</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -5224,13 +5224,13 @@
         <v>19971</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5245,13 +5245,13 @@
         <v>62156</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="H8" s="7">
         <v>80</v>
@@ -5260,13 +5260,13 @@
         <v>52147</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="M8" s="7">
         <v>153</v>
@@ -5275,13 +5275,13 @@
         <v>114303</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5296,13 +5296,13 @@
         <v>71752</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
         <v>95</v>
@@ -5311,13 +5311,13 @@
         <v>62522</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>179</v>
@@ -5326,66 +5326,66 @@
         <v>134274</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D10" s="7">
-        <v>13521</v>
+        <v>34630</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="H10" s="7">
+        <v>20</v>
+      </c>
+      <c r="I10" s="7">
+        <v>15501</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>62</v>
+      </c>
+      <c r="N10" s="7">
+        <v>50131</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="H10" s="7">
-        <v>18</v>
-      </c>
-      <c r="I10" s="7">
-        <v>13334</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="M10" s="7">
-        <v>35</v>
-      </c>
-      <c r="N10" s="7">
-        <v>26854</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5394,49 +5394,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="D11" s="7">
-        <v>94254</v>
+        <v>132320</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="H11" s="7">
+        <v>143</v>
+      </c>
+      <c r="I11" s="7">
+        <v>102999</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>312</v>
+      </c>
+      <c r="N11" s="7">
+        <v>235318</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="H11" s="7">
-        <v>121</v>
-      </c>
-      <c r="I11" s="7">
-        <v>90863</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="M11" s="7">
-        <v>242</v>
-      </c>
-      <c r="N11" s="7">
-        <v>185118</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5445,102 +5445,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>138</v>
+        <v>211</v>
       </c>
       <c r="D12" s="7">
-        <v>107775</v>
+        <v>166950</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="I12" s="7">
-        <v>104197</v>
+        <v>118500</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
-        <v>277</v>
+        <v>374</v>
       </c>
       <c r="N12" s="7">
-        <v>211972</v>
+        <v>285449</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D13" s="7">
-        <v>765</v>
+        <v>22651</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="H13" s="7">
+        <v>38</v>
+      </c>
+      <c r="I13" s="7">
+        <v>30128</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>64</v>
+      </c>
+      <c r="N13" s="7">
+        <v>52780</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2728</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="M13" s="7">
-        <v>4</v>
-      </c>
-      <c r="N13" s="7">
-        <v>3494</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5549,49 +5549,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D14" s="7">
-        <v>5740</v>
+        <v>89170</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="H14" s="7">
+        <v>104</v>
+      </c>
+      <c r="I14" s="7">
+        <v>75158</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>206</v>
+      </c>
+      <c r="N14" s="7">
+        <v>164327</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" s="7">
-        <v>12</v>
-      </c>
-      <c r="I14" s="7">
-        <v>6791</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="K14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="M14" s="7">
-        <v>20</v>
-      </c>
-      <c r="N14" s="7">
-        <v>12529</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5600,49 +5600,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="D15" s="7">
-        <v>6505</v>
+        <v>111821</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
-        <v>15</v>
+        <v>142</v>
       </c>
       <c r="I15" s="7">
-        <v>9519</v>
+        <v>105286</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
-        <v>24</v>
+        <v>270</v>
       </c>
       <c r="N15" s="7">
-        <v>16023</v>
+        <v>217107</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5653,49 +5653,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D16" s="7">
-        <v>22651</v>
+        <v>13521</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="H16" s="7">
+        <v>18</v>
+      </c>
+      <c r="I16" s="7">
+        <v>13334</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>35</v>
+      </c>
+      <c r="N16" s="7">
+        <v>26854</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="H16" s="7">
-        <v>38</v>
-      </c>
-      <c r="I16" s="7">
-        <v>30128</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="M16" s="7">
-        <v>64</v>
-      </c>
-      <c r="N16" s="7">
-        <v>52780</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5704,43 +5704,43 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="D17" s="7">
-        <v>89170</v>
+        <v>94254</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>121</v>
+      </c>
+      <c r="I17" s="7">
+        <v>90863</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="H17" s="7">
-        <v>104</v>
-      </c>
-      <c r="I17" s="7">
-        <v>75158</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>242</v>
+      </c>
+      <c r="N17" s="7">
+        <v>185118</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="M17" s="7">
-        <v>206</v>
-      </c>
-      <c r="N17" s="7">
-        <v>164327</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>417</v>
@@ -5755,49 +5755,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D18" s="7">
-        <v>111821</v>
+        <v>107775</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I18" s="7">
-        <v>105286</v>
+        <v>104197</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="N18" s="7">
-        <v>217107</v>
+        <v>211972</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5916,13 +5916,13 @@
         <v>464803</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H21" s="7">
         <v>554</v>
@@ -5931,13 +5931,13 @@
         <v>400024</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M21" s="7">
         <v>1124</v>
@@ -5946,13 +5946,13 @@
         <v>864826</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP19C01-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP19C01-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72A45838-BEC3-4A85-A320-8517B5265189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65F5F5AB-7634-43C7-A6E6-2C623C35E1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{E835A73C-1DD0-4E68-8218-92806B61C1AA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8BA12030-0A01-4122-BE5C-A8265B679547}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="430">
   <si>
     <t>Menores según su última visita al dentista fue por revisión o chequeo en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
@@ -71,6 +71,36 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -86,1270 +116,1219 @@
     <t>51,65%</t>
   </si>
   <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
   </si>
   <si>
     <t>28,99%</t>
   </si>
   <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
+  </si>
+  <si>
     <t>35,49%</t>
   </si>
   <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
   </si>
   <si>
     <t>33,13%</t>
   </si>
   <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
   </si>
   <si>
     <t>34,4%</t>
   </si>
   <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
     <t>27,31%</t>
   </si>
   <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
   </si>
   <si>
     <t>32,32%</t>
   </si>
   <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
   </si>
   <si>
     <t>29,8%</t>
   </si>
   <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
   </si>
   <si>
     <t>mas de 50</t>
   </si>
   <si>
-    <t>26,96%</t>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
   </si>
   <si>
     <t>19,49%</t>
   </si>
   <si>
-    <t>35,2%</t>
+    <t>35,09%</t>
   </si>
   <si>
     <t>28,5%</t>
   </si>
   <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
   </si>
   <si>
     <t>27,68%</t>
   </si>
   <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
     <t>30,8%</t>
   </si>
   <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
   </si>
   <si>
     <t>36,56%</t>
   </si>
   <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por revisión o chequeo en 2012 (Tasa respuesta: 49,21%)</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
     <t>27,78%</t>
   </si>
   <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por revisión o chequeo en 2012 (Tasa respuesta: 49,21%)</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
     <t>35,34%</t>
   </si>
   <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por revisión o chequeo en 2015 (Tasa respuesta: 49,15%)</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por revisión o chequeo en 2023 (Tasa respuesta: 58,54%)</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
     <t>28,66%</t>
   </si>
   <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
   </si>
   <si>
     <t>21,99%</t>
   </si>
   <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por revisión o chequeo en 2015 (Tasa respuesta: 49,15%)</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por revisión o chequeo en 2023 (Tasa respuesta: 58,54%)</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
     <t>17,72%</t>
   </si>
   <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
   </si>
 </sst>
 </file>
@@ -1360,7 +1339,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1456,39 +1435,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1540,7 +1519,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1651,13 +1630,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1666,6 +1638,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1730,19 +1709,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10967F68-88BF-4AC6-B2E4-C6E2B41A57E2}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4FA36BC-0861-46F3-9FA6-48A881AAF066}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1859,10 +1858,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>13729</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1877,7 +1876,7 @@
         <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>9069</v>
+        <v>8490</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1889,10 +1888,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="N4" s="7">
-        <v>9070</v>
+        <v>22218</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1910,10 +1909,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>13729</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1928,7 +1927,7 @@
         <v>11</v>
       </c>
       <c r="I5" s="7">
-        <v>8490</v>
+        <v>9069</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1940,10 +1939,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="N5" s="7">
-        <v>22218</v>
+        <v>9070</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1967,13 +1966,13 @@
         <v>13729</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
         <v>22</v>
@@ -1982,13 +1981,13 @@
         <v>17559</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
         <v>40</v>
@@ -1997,13 +1996,13 @@
         <v>31288</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2014,10 +2013,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="D7" s="7">
-        <v>24294</v>
+        <v>44165</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>31</v>
@@ -2029,10 +2028,10 @@
         <v>33</v>
       </c>
       <c r="H7" s="7">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="I7" s="7">
-        <v>19250</v>
+        <v>38863</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>34</v>
@@ -2044,10 +2043,10 @@
         <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="N7" s="7">
-        <v>43544</v>
+        <v>83029</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>37</v>
@@ -2065,10 +2064,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="D8" s="7">
-        <v>44165</v>
+        <v>24294</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>40</v>
@@ -2080,10 +2079,10 @@
         <v>42</v>
       </c>
       <c r="H8" s="7">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="I8" s="7">
-        <v>38863</v>
+        <v>19250</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>43</v>
@@ -2095,10 +2094,10 @@
         <v>45</v>
       </c>
       <c r="M8" s="7">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="N8" s="7">
-        <v>83029</v>
+        <v>43544</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>46</v>
@@ -2122,13 +2121,13 @@
         <v>68459</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>87</v>
@@ -2137,13 +2136,13 @@
         <v>58113</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>191</v>
@@ -2152,13 +2151,13 @@
         <v>126573</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2169,10 +2168,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="D10" s="7">
-        <v>30490</v>
+        <v>81141</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>50</v>
@@ -2184,10 +2183,10 @@
         <v>52</v>
       </c>
       <c r="H10" s="7">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="I10" s="7">
-        <v>35576</v>
+        <v>74485</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>53</v>
@@ -2199,10 +2198,10 @@
         <v>55</v>
       </c>
       <c r="M10" s="7">
-        <v>102</v>
+        <v>242</v>
       </c>
       <c r="N10" s="7">
-        <v>66066</v>
+        <v>155626</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>56</v>
@@ -2220,10 +2219,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="D11" s="7">
-        <v>81141</v>
+        <v>30490</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>59</v>
@@ -2235,10 +2234,10 @@
         <v>61</v>
       </c>
       <c r="H11" s="7">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="I11" s="7">
-        <v>74485</v>
+        <v>35576</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>62</v>
@@ -2250,10 +2249,10 @@
         <v>64</v>
       </c>
       <c r="M11" s="7">
-        <v>242</v>
+        <v>102</v>
       </c>
       <c r="N11" s="7">
-        <v>155626</v>
+        <v>66066</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>65</v>
@@ -2277,13 +2276,13 @@
         <v>111631</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
         <v>174</v>
@@ -2292,13 +2291,13 @@
         <v>110061</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
         <v>344</v>
@@ -2307,13 +2306,13 @@
         <v>221692</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2324,49 +2323,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="D13" s="7">
-        <v>20993</v>
+        <v>56876</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>83</v>
+      </c>
+      <c r="I13" s="7">
+        <v>49486</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="7">
-        <v>32</v>
-      </c>
-      <c r="I13" s="7">
-        <v>19722</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>172</v>
+      </c>
+      <c r="N13" s="7">
+        <v>106362</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="M13" s="7">
-        <v>65</v>
-      </c>
-      <c r="N13" s="7">
-        <v>40715</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2375,49 +2374,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="D14" s="7">
-        <v>56876</v>
+        <v>20993</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>32</v>
+      </c>
+      <c r="I14" s="7">
+        <v>19722</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="7">
+      <c r="L14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M14" s="7">
+        <v>65</v>
+      </c>
+      <c r="N14" s="7">
+        <v>40715</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="I14" s="7">
-        <v>49486</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M14" s="7">
-        <v>172</v>
-      </c>
-      <c r="N14" s="7">
-        <v>106362</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2432,13 +2431,13 @@
         <v>77869</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
         <v>115</v>
@@ -2447,13 +2446,13 @@
         <v>69208</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
         <v>237</v>
@@ -2462,66 +2461,66 @@
         <v>147077</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="D16" s="7">
-        <v>27734</v>
+        <v>62309</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>79</v>
+      </c>
+      <c r="I16" s="7">
+        <v>60895</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H16" s="7">
-        <v>45</v>
-      </c>
-      <c r="I16" s="7">
-        <v>35094</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>170</v>
+      </c>
+      <c r="N16" s="7">
+        <v>123203</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="M16" s="7">
-        <v>85</v>
-      </c>
-      <c r="N16" s="7">
-        <v>62829</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2530,49 +2529,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="D17" s="7">
-        <v>62309</v>
+        <v>27734</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>45</v>
+      </c>
+      <c r="I17" s="7">
+        <v>35094</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H17" s="7">
-        <v>79</v>
-      </c>
-      <c r="I17" s="7">
-        <v>60895</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>85</v>
+      </c>
+      <c r="N17" s="7">
+        <v>62829</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="M17" s="7">
-        <v>170</v>
-      </c>
-      <c r="N17" s="7">
-        <v>123203</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2587,13 +2586,13 @@
         <v>90043</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
         <v>124</v>
@@ -2602,13 +2601,13 @@
         <v>95989</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
         <v>255</v>
@@ -2617,13 +2616,13 @@
         <v>186032</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2634,49 +2633,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>155</v>
+        <v>390</v>
       </c>
       <c r="D19" s="7">
-        <v>103511</v>
+        <v>258220</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>349</v>
+      </c>
+      <c r="I19" s="7">
+        <v>232218</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H19" s="7">
-        <v>173</v>
-      </c>
-      <c r="I19" s="7">
-        <v>118712</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>739</v>
+      </c>
+      <c r="N19" s="7">
+        <v>490437</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="M19" s="7">
-        <v>328</v>
-      </c>
-      <c r="N19" s="7">
-        <v>222224</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2685,49 +2684,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>390</v>
+        <v>155</v>
       </c>
       <c r="D20" s="7">
-        <v>258220</v>
+        <v>103511</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>173</v>
+      </c>
+      <c r="I20" s="7">
+        <v>118712</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H20" s="7">
-        <v>349</v>
-      </c>
-      <c r="I20" s="7">
-        <v>232218</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>328</v>
+      </c>
+      <c r="N20" s="7">
+        <v>222224</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="M20" s="7">
-        <v>739</v>
-      </c>
-      <c r="N20" s="7">
-        <v>490437</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2742,13 +2741,13 @@
         <v>361731</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>522</v>
@@ -2757,13 +2756,13 @@
         <v>350930</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>1067</v>
@@ -2772,13 +2771,18 @@
         <v>712661</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2799,8 +2803,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71073FE-B96B-44C7-AF22-1D60858064D9}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76479CD3-200D-4345-9F67-C8E4F932C862}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2816,7 +2820,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2917,49 +2921,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>4718</v>
+        <v>8322</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>11</v>
+      </c>
+      <c r="I4" s="7">
+        <v>9530</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H4" s="7">
-        <v>4</v>
-      </c>
-      <c r="I4" s="7">
-        <v>3360</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>20</v>
+      </c>
+      <c r="N4" s="7">
+        <v>17852</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="M4" s="7">
-        <v>9</v>
-      </c>
-      <c r="N4" s="7">
-        <v>8079</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2968,49 +2972,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>5</v>
+      </c>
+      <c r="D5" s="7">
+        <v>4718</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H5" s="7">
+        <v>4</v>
+      </c>
+      <c r="I5" s="7">
+        <v>3360</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="M5" s="7">
         <v>9</v>
       </c>
-      <c r="D5" s="7">
-        <v>8322</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="H5" s="7">
-        <v>11</v>
-      </c>
-      <c r="I5" s="7">
-        <v>9530</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L5" s="7" t="s">
+      <c r="N5" s="7">
+        <v>8079</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="M5" s="7">
-        <v>20</v>
-      </c>
-      <c r="N5" s="7">
-        <v>17852</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3025,13 +3029,13 @@
         <v>13040</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
         <v>15</v>
@@ -3040,13 +3044,13 @@
         <v>12890</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
         <v>29</v>
@@ -3055,13 +3059,13 @@
         <v>25931</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3072,40 +3076,40 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="D7" s="7">
-        <v>21029</v>
+        <v>41952</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>65</v>
+      </c>
+      <c r="I7" s="7">
+        <v>47324</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="H7" s="7">
-        <v>21</v>
-      </c>
-      <c r="I7" s="7">
-        <v>15197</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>147</v>
       </c>
       <c r="M7" s="7">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="N7" s="7">
-        <v>36226</v>
+        <v>89276</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>148</v>
@@ -3123,10 +3127,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="D8" s="7">
-        <v>41952</v>
+        <v>21029</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>151</v>
@@ -3138,10 +3142,10 @@
         <v>153</v>
       </c>
       <c r="H8" s="7">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="I8" s="7">
-        <v>47324</v>
+        <v>15197</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>154</v>
@@ -3150,22 +3154,22 @@
         <v>155</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>29</v>
+        <v>156</v>
       </c>
       <c r="M8" s="7">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="N8" s="7">
-        <v>89276</v>
+        <v>36226</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3180,13 +3184,13 @@
         <v>62981</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>86</v>
@@ -3195,13 +3199,13 @@
         <v>62521</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>175</v>
@@ -3210,13 +3214,13 @@
         <v>125502</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3227,49 +3231,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="D10" s="7">
-        <v>24652</v>
+        <v>90670</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H10" s="7">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="I10" s="7">
-        <v>39788</v>
+        <v>72811</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M10" s="7">
-        <v>99</v>
+        <v>240</v>
       </c>
       <c r="N10" s="7">
-        <v>64440</v>
+        <v>163482</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3278,10 +3282,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="D11" s="7">
-        <v>90670</v>
+        <v>24652</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>168</v>
@@ -3293,10 +3297,10 @@
         <v>170</v>
       </c>
       <c r="H11" s="7">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="I11" s="7">
-        <v>72811</v>
+        <v>39788</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>171</v>
@@ -3308,19 +3312,19 @@
         <v>173</v>
       </c>
       <c r="M11" s="7">
-        <v>240</v>
+        <v>99</v>
       </c>
       <c r="N11" s="7">
-        <v>163482</v>
+        <v>64440</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>174</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3335,13 +3339,13 @@
         <v>115322</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
         <v>170</v>
@@ -3350,13 +3354,13 @@
         <v>112599</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
         <v>339</v>
@@ -3365,13 +3369,13 @@
         <v>227922</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3382,49 +3386,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="D13" s="7">
-        <v>22252</v>
+        <v>57501</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>87</v>
+      </c>
+      <c r="I13" s="7">
+        <v>56335</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="H13" s="7">
-        <v>29</v>
-      </c>
-      <c r="I13" s="7">
-        <v>18699</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>176</v>
+      </c>
+      <c r="N13" s="7">
+        <v>113836</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="M13" s="7">
-        <v>63</v>
-      </c>
-      <c r="N13" s="7">
-        <v>40951</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,10 +3437,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="D14" s="7">
-        <v>57501</v>
+        <v>22252</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>185</v>
@@ -3448,10 +3452,10 @@
         <v>187</v>
       </c>
       <c r="H14" s="7">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="I14" s="7">
-        <v>56335</v>
+        <v>18699</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>188</v>
@@ -3463,19 +3467,19 @@
         <v>190</v>
       </c>
       <c r="M14" s="7">
-        <v>176</v>
+        <v>63</v>
       </c>
       <c r="N14" s="7">
-        <v>113836</v>
+        <v>40951</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>191</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>116</v>
+        <v>192</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3490,13 +3494,13 @@
         <v>79753</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
         <v>116</v>
@@ -3505,13 +3509,13 @@
         <v>75034</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
         <v>239</v>
@@ -3520,66 +3524,66 @@
         <v>154787</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="D16" s="7">
-        <v>15614</v>
+        <v>80687</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H16" s="7">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="I16" s="7">
-        <v>22184</v>
+        <v>70793</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M16" s="7">
-        <v>50</v>
+        <v>201</v>
       </c>
       <c r="N16" s="7">
-        <v>37798</v>
+        <v>151479</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3588,49 +3592,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="D17" s="7">
-        <v>80687</v>
+        <v>15614</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H17" s="7">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="I17" s="7">
-        <v>70793</v>
+        <v>22184</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M17" s="7">
-        <v>201</v>
+        <v>50</v>
       </c>
       <c r="N17" s="7">
-        <v>151479</v>
+        <v>37798</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3645,13 +3649,13 @@
         <v>96301</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
         <v>120</v>
@@ -3660,13 +3664,13 @@
         <v>92977</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
         <v>251</v>
@@ -3675,13 +3679,13 @@
         <v>189277</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3692,40 +3696,40 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>129</v>
+        <v>397</v>
       </c>
       <c r="D19" s="7">
-        <v>88265</v>
+        <v>279132</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H19" s="7">
-        <v>144</v>
+        <v>363</v>
       </c>
       <c r="I19" s="7">
-        <v>99229</v>
+        <v>256792</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>216</v>
+        <v>145</v>
       </c>
       <c r="M19" s="7">
-        <v>273</v>
+        <v>760</v>
       </c>
       <c r="N19" s="7">
-        <v>187494</v>
+        <v>535924</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>217</v>
@@ -3743,10 +3747,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>397</v>
+        <v>129</v>
       </c>
       <c r="D20" s="7">
-        <v>279132</v>
+        <v>88265</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>220</v>
@@ -3758,34 +3762,34 @@
         <v>222</v>
       </c>
       <c r="H20" s="7">
-        <v>363</v>
+        <v>144</v>
       </c>
       <c r="I20" s="7">
-        <v>256792</v>
+        <v>99229</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>223</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>273</v>
+      </c>
+      <c r="N20" s="7">
+        <v>187494</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="M20" s="7">
-        <v>760</v>
-      </c>
-      <c r="N20" s="7">
-        <v>535924</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,13 +3804,13 @@
         <v>367397</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>507</v>
@@ -3815,13 +3819,13 @@
         <v>356021</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>1033</v>
@@ -3830,13 +3834,18 @@
         <v>723418</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3857,8 +3866,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D116419-7635-4557-9715-18F80A784E1F}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96C13853-BEF3-4004-B1FD-B6B35EBEE79F}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3874,7 +3883,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3975,49 +3984,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D4" s="7">
-        <v>2211</v>
+        <v>13266</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>10</v>
+      </c>
+      <c r="I4" s="7">
+        <v>9783</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="H4" s="7">
-        <v>6</v>
-      </c>
-      <c r="I4" s="7">
-        <v>5219</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>25</v>
+      </c>
+      <c r="N4" s="7">
+        <v>23049</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="M4" s="7">
-        <v>9</v>
-      </c>
-      <c r="N4" s="7">
-        <v>7430</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4026,49 +4035,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>13266</v>
+        <v>2211</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>6</v>
+      </c>
+      <c r="I5" s="7">
+        <v>5219</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="H5" s="7">
-        <v>10</v>
-      </c>
-      <c r="I5" s="7">
-        <v>9783</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>9</v>
+      </c>
+      <c r="N5" s="7">
+        <v>7430</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="M5" s="7">
-        <v>25</v>
-      </c>
-      <c r="N5" s="7">
-        <v>23049</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4083,13 +4092,13 @@
         <v>15477</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
         <v>16</v>
@@ -4098,13 +4107,13 @@
         <v>15002</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
         <v>34</v>
@@ -4113,13 +4122,13 @@
         <v>30479</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,49 +4139,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="D7" s="7">
-        <v>13207</v>
+        <v>48627</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>54</v>
+      </c>
+      <c r="I7" s="7">
+        <v>37610</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="H7" s="7">
-        <v>28</v>
-      </c>
-      <c r="I7" s="7">
-        <v>18228</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>117</v>
+      </c>
+      <c r="N7" s="7">
+        <v>86237</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="M7" s="7">
-        <v>46</v>
-      </c>
-      <c r="N7" s="7">
-        <v>31435</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4181,49 +4190,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="D8" s="7">
-        <v>48627</v>
+        <v>13207</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>28</v>
+      </c>
+      <c r="I8" s="7">
+        <v>18228</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="H8" s="7">
-        <v>54</v>
-      </c>
-      <c r="I8" s="7">
-        <v>37610</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>46</v>
+      </c>
+      <c r="N8" s="7">
+        <v>31435</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="M8" s="7">
-        <v>117</v>
-      </c>
-      <c r="N8" s="7">
-        <v>86237</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,13 +4247,13 @@
         <v>61834</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>82</v>
@@ -4253,13 +4262,13 @@
         <v>55838</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>163</v>
@@ -4268,13 +4277,13 @@
         <v>117672</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4285,49 +4294,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="D10" s="7">
-        <v>30302</v>
+        <v>78290</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>115</v>
+      </c>
+      <c r="I10" s="7">
+        <v>75244</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="H10" s="7">
-        <v>52</v>
-      </c>
-      <c r="I10" s="7">
-        <v>32717</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>228</v>
+      </c>
+      <c r="N10" s="7">
+        <v>153535</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="M10" s="7">
-        <v>96</v>
-      </c>
-      <c r="N10" s="7">
-        <v>63018</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4336,49 +4345,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="D11" s="7">
-        <v>78290</v>
+        <v>30302</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>185</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>52</v>
+      </c>
+      <c r="I11" s="7">
+        <v>32717</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="H11" s="7">
-        <v>115</v>
-      </c>
-      <c r="I11" s="7">
-        <v>75244</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>96</v>
+      </c>
+      <c r="N11" s="7">
+        <v>63018</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="M11" s="7">
-        <v>228</v>
-      </c>
-      <c r="N11" s="7">
-        <v>153535</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4393,13 +4402,13 @@
         <v>108592</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
         <v>167</v>
@@ -4408,13 +4417,13 @@
         <v>107961</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
         <v>324</v>
@@ -4423,13 +4432,13 @@
         <v>216553</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4440,49 +4449,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="D13" s="7">
-        <v>21862</v>
+        <v>56288</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>93</v>
+      </c>
+      <c r="I13" s="7">
+        <v>59010</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="H13" s="7">
-        <v>26</v>
-      </c>
-      <c r="I13" s="7">
-        <v>16578</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>174</v>
+      </c>
+      <c r="N13" s="7">
+        <v>115297</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="M13" s="7">
-        <v>58</v>
-      </c>
-      <c r="N13" s="7">
-        <v>38440</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4491,49 +4500,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="D14" s="7">
-        <v>56288</v>
+        <v>21862</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>26</v>
+      </c>
+      <c r="I14" s="7">
+        <v>16578</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="H14" s="7">
-        <v>93</v>
-      </c>
-      <c r="I14" s="7">
-        <v>59010</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>58</v>
+      </c>
+      <c r="N14" s="7">
+        <v>38440</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="M14" s="7">
-        <v>174</v>
-      </c>
-      <c r="N14" s="7">
-        <v>115297</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4548,13 +4557,13 @@
         <v>78150</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
         <v>119</v>
@@ -4563,13 +4572,13 @@
         <v>75588</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
         <v>232</v>
@@ -4578,66 +4587,66 @@
         <v>153737</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="D16" s="7">
-        <v>21847</v>
+        <v>85503</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>114</v>
+      </c>
+      <c r="I16" s="7">
+        <v>86919</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="H16" s="7">
-        <v>32</v>
-      </c>
-      <c r="I16" s="7">
-        <v>23715</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>230</v>
+      </c>
+      <c r="N16" s="7">
+        <v>172422</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="M16" s="7">
-        <v>62</v>
-      </c>
-      <c r="N16" s="7">
-        <v>45562</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4646,49 +4655,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="D17" s="7">
-        <v>85503</v>
+        <v>21847</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>32</v>
+      </c>
+      <c r="I17" s="7">
+        <v>23715</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="H17" s="7">
-        <v>114</v>
-      </c>
-      <c r="I17" s="7">
-        <v>86919</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>62</v>
+      </c>
+      <c r="N17" s="7">
+        <v>45562</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="M17" s="7">
-        <v>230</v>
-      </c>
-      <c r="N17" s="7">
-        <v>172422</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4703,13 +4712,13 @@
         <v>107350</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
         <v>146</v>
@@ -4718,13 +4727,13 @@
         <v>110634</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
         <v>292</v>
@@ -4733,13 +4742,13 @@
         <v>217984</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4750,49 +4759,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>127</v>
+        <v>388</v>
       </c>
       <c r="D19" s="7">
-        <v>89428</v>
+        <v>281974</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>386</v>
+      </c>
+      <c r="I19" s="7">
+        <v>268568</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="H19" s="7">
-        <v>144</v>
-      </c>
-      <c r="I19" s="7">
-        <v>96456</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>774</v>
+      </c>
+      <c r="N19" s="7">
+        <v>550541</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="M19" s="7">
-        <v>271</v>
-      </c>
-      <c r="N19" s="7">
-        <v>185884</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4801,49 +4810,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>388</v>
+        <v>127</v>
       </c>
       <c r="D20" s="7">
-        <v>281974</v>
+        <v>89428</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>144</v>
+      </c>
+      <c r="I20" s="7">
+        <v>96456</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="H20" s="7">
-        <v>386</v>
-      </c>
-      <c r="I20" s="7">
-        <v>268568</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>271</v>
+      </c>
+      <c r="N20" s="7">
+        <v>185884</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="M20" s="7">
-        <v>774</v>
-      </c>
-      <c r="N20" s="7">
-        <v>550541</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>334</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>335</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4858,13 +4867,13 @@
         <v>371402</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>530</v>
@@ -4873,13 +4882,13 @@
         <v>365024</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>1045</v>
@@ -4888,13 +4897,18 @@
         <v>736425</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4915,8 +4929,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51FDC814-3CF3-4B98-BD25-EAB2F7D15196}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8168C3-0A51-475C-8C5A-5AFD0658AB95}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4932,7 +4946,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5033,49 +5047,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>765</v>
+        <v>5740</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="7">
+        <v>12</v>
+      </c>
+      <c r="I4" s="7">
+        <v>6791</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="H4" s="7">
-        <v>3</v>
-      </c>
-      <c r="I4" s="7">
-        <v>2728</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>20</v>
+      </c>
+      <c r="N4" s="7">
+        <v>12529</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="M4" s="7">
-        <v>4</v>
-      </c>
-      <c r="N4" s="7">
-        <v>3494</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5084,49 +5098,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>5740</v>
+        <v>765</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="H5" s="7">
+        <v>3</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2728</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="7">
-        <v>12</v>
-      </c>
-      <c r="I5" s="7">
-        <v>6791</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>4</v>
+      </c>
+      <c r="N5" s="7">
+        <v>3494</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="M5" s="7">
-        <v>20</v>
-      </c>
-      <c r="N5" s="7">
-        <v>12529</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5141,13 +5155,13 @@
         <v>6505</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
         <v>15</v>
@@ -5156,13 +5170,13 @@
         <v>9519</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
         <v>24</v>
@@ -5171,13 +5185,13 @@
         <v>16023</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5188,49 +5202,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D7" s="7">
-        <v>9596</v>
+        <v>62156</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>80</v>
+      </c>
+      <c r="I7" s="7">
+        <v>52147</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="H7" s="7">
-        <v>15</v>
-      </c>
-      <c r="I7" s="7">
-        <v>10375</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>153</v>
+      </c>
+      <c r="N7" s="7">
+        <v>114303</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="M7" s="7">
-        <v>26</v>
-      </c>
-      <c r="N7" s="7">
-        <v>19971</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5239,49 +5253,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D8" s="7">
-        <v>62156</v>
+        <v>9596</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>15</v>
+      </c>
+      <c r="I8" s="7">
+        <v>10375</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="H8" s="7">
-        <v>80</v>
-      </c>
-      <c r="I8" s="7">
-        <v>52147</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>26</v>
+      </c>
+      <c r="N8" s="7">
+        <v>19971</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="M8" s="7">
-        <v>153</v>
-      </c>
-      <c r="N8" s="7">
-        <v>114303</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5296,13 +5310,13 @@
         <v>71752</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>95</v>
@@ -5311,13 +5325,13 @@
         <v>62522</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>179</v>
@@ -5326,13 +5340,13 @@
         <v>134274</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5343,49 +5357,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>42</v>
+        <v>169</v>
       </c>
       <c r="D10" s="7">
-        <v>34630</v>
+        <v>132320</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>143</v>
+      </c>
+      <c r="I10" s="7">
+        <v>102999</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="H10" s="7">
-        <v>20</v>
-      </c>
-      <c r="I10" s="7">
-        <v>15501</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>312</v>
+      </c>
+      <c r="N10" s="7">
+        <v>235318</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="M10" s="7">
-        <v>62</v>
-      </c>
-      <c r="N10" s="7">
-        <v>50131</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5394,49 +5408,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>169</v>
+        <v>42</v>
       </c>
       <c r="D11" s="7">
-        <v>132320</v>
+        <v>34630</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="H11" s="7">
+        <v>20</v>
+      </c>
+      <c r="I11" s="7">
+        <v>15501</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M11" s="7">
+        <v>62</v>
+      </c>
+      <c r="N11" s="7">
+        <v>50131</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="H11" s="7">
-        <v>143</v>
-      </c>
-      <c r="I11" s="7">
-        <v>102999</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="M11" s="7">
-        <v>312</v>
-      </c>
-      <c r="N11" s="7">
-        <v>235318</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5451,13 +5465,13 @@
         <v>166950</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
         <v>163</v>
@@ -5466,13 +5480,13 @@
         <v>118500</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
         <v>374</v>
@@ -5481,13 +5495,13 @@
         <v>285449</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5498,49 +5512,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="D13" s="7">
-        <v>22651</v>
+        <v>89170</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="H13" s="7">
+        <v>104</v>
+      </c>
+      <c r="I13" s="7">
+        <v>75158</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="M13" s="7">
+        <v>206</v>
+      </c>
+      <c r="N13" s="7">
+        <v>164327</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="H13" s="7">
-        <v>38</v>
-      </c>
-      <c r="I13" s="7">
-        <v>30128</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="M13" s="7">
-        <v>64</v>
-      </c>
-      <c r="N13" s="7">
-        <v>52780</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5549,49 +5563,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="D14" s="7">
-        <v>89170</v>
+        <v>22651</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>396</v>
+        <v>65</v>
       </c>
       <c r="H14" s="7">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="I14" s="7">
-        <v>75158</v>
+        <v>30128</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="M14" s="7">
-        <v>206</v>
+        <v>64</v>
       </c>
       <c r="N14" s="7">
-        <v>164327</v>
+        <v>52780</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5606,13 +5620,13 @@
         <v>111821</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
         <v>142</v>
@@ -5621,13 +5635,13 @@
         <v>105286</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
         <v>270</v>
@@ -5636,66 +5650,66 @@
         <v>217107</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="D16" s="7">
-        <v>13521</v>
+        <v>94254</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="H16" s="7">
+        <v>121</v>
+      </c>
+      <c r="I16" s="7">
+        <v>90863</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="M16" s="7">
+        <v>242</v>
+      </c>
+      <c r="N16" s="7">
+        <v>185118</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="H16" s="7">
-        <v>18</v>
-      </c>
-      <c r="I16" s="7">
-        <v>13334</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="M16" s="7">
-        <v>35</v>
-      </c>
-      <c r="N16" s="7">
-        <v>26854</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5704,49 +5718,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="D17" s="7">
-        <v>94254</v>
+        <v>13521</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H17" s="7">
+        <v>18</v>
+      </c>
+      <c r="I17" s="7">
+        <v>13334</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="M17" s="7">
+        <v>35</v>
+      </c>
+      <c r="N17" s="7">
+        <v>26854</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="H17" s="7">
-        <v>121</v>
-      </c>
-      <c r="I17" s="7">
-        <v>90863</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="M17" s="7">
-        <v>242</v>
-      </c>
-      <c r="N17" s="7">
-        <v>185118</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5761,13 +5775,13 @@
         <v>107775</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
         <v>139</v>
@@ -5776,13 +5790,13 @@
         <v>104197</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
         <v>277</v>
@@ -5791,13 +5805,13 @@
         <v>211972</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5808,49 +5822,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>97</v>
+        <v>473</v>
       </c>
       <c r="D19" s="7">
-        <v>81163</v>
+        <v>383640</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="H19" s="7">
+        <v>460</v>
+      </c>
+      <c r="I19" s="7">
+        <v>327957</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="M19" s="7">
+        <v>933</v>
+      </c>
+      <c r="N19" s="7">
+        <v>711597</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="H19" s="7">
-        <v>94</v>
-      </c>
-      <c r="I19" s="7">
-        <v>72067</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="M19" s="7">
-        <v>191</v>
-      </c>
-      <c r="N19" s="7">
-        <v>153229</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5859,49 +5873,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>473</v>
+        <v>97</v>
       </c>
       <c r="D20" s="7">
-        <v>383640</v>
+        <v>81163</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="H20" s="7">
+        <v>94</v>
+      </c>
+      <c r="I20" s="7">
+        <v>72067</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="M20" s="7">
+        <v>191</v>
+      </c>
+      <c r="N20" s="7">
+        <v>153229</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="H20" s="7">
-        <v>460</v>
-      </c>
-      <c r="I20" s="7">
-        <v>327957</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="M20" s="7">
-        <v>933</v>
-      </c>
-      <c r="N20" s="7">
-        <v>711597</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5916,13 +5930,13 @@
         <v>464803</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>554</v>
@@ -5931,13 +5945,13 @@
         <v>400024</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>1124</v>
@@ -5946,13 +5960,18 @@
         <v>864826</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP19C01-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP19C01-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65F5F5AB-7634-43C7-A6E6-2C623C35E1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63969FC8-0788-40AA-B206-B0408418821E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8BA12030-0A01-4122-BE5C-A8265B679547}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BD8AF1DB-E8DE-40B4-974C-828D06324C52}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -86,214 +86,214 @@
     <t>48,35%</t>
   </si>
   <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
     <t>26,96%</t>
   </si>
   <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
   </si>
   <si>
     <t>27,68%</t>
   </si>
   <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -302,109 +302,109 @@
     <t>69,2%</t>
   </si>
   <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
   </si>
   <si>
     <t>63,44%</t>
   </si>
   <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
   </si>
   <si>
     <t>66,23%</t>
   </si>
   <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
   </si>
   <si>
     <t>30,8%</t>
   </si>
   <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
   </si>
   <si>
     <t>36,56%</t>
   </si>
   <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
   </si>
   <si>
     <t>33,77%</t>
   </si>
   <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
   </si>
   <si>
     <t>71,38%</t>
   </si>
   <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
   </si>
   <si>
     <t>66,17%</t>
   </si>
   <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
   </si>
   <si>
     <t>68,82%</t>
   </si>
   <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
   </si>
   <si>
     <t>28,62%</t>
   </si>
   <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
   </si>
   <si>
     <t>33,83%</t>
   </si>
   <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
   </si>
   <si>
     <t>31,18%</t>
   </si>
   <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -416,919 +416,919 @@
     <t>63,82%</t>
   </si>
   <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
   </si>
   <si>
     <t>73,93%</t>
   </si>
   <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
   </si>
   <si>
     <t>68,85%</t>
   </si>
   <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
   </si>
   <si>
     <t>36,18%</t>
   </si>
   <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
   </si>
   <si>
     <t>26,07%</t>
   </si>
   <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
   </si>
   <si>
     <t>31,15%</t>
   </si>
   <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
   </si>
   <si>
     <t>66,61%</t>
   </si>
   <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
   </si>
   <si>
     <t>75,69%</t>
   </si>
   <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
   </si>
   <si>
     <t>71,13%</t>
   </si>
   <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
   </si>
   <si>
     <t>33,39%</t>
   </si>
   <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
   </si>
   <si>
     <t>24,31%</t>
   </si>
   <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
   </si>
   <si>
     <t>28,87%</t>
   </si>
   <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
   </si>
   <si>
     <t>78,62%</t>
   </si>
   <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
   </si>
   <si>
     <t>64,66%</t>
   </si>
   <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
   </si>
   <si>
     <t>71,73%</t>
   </si>
   <si>
-    <t>66,3%</t>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
   </si>
   <si>
     <t>21,38%</t>
   </si>
   <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
   </si>
   <si>
     <t>35,34%</t>
   </si>
   <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
   </si>
   <si>
     <t>28,27%</t>
   </si>
   <si>
-    <t>33,7%</t>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
   </si>
   <si>
     <t>72,1%</t>
   </si>
   <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
   </si>
   <si>
     <t>75,08%</t>
   </si>
   <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
   </si>
   <si>
     <t>73,54%</t>
   </si>
   <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
   </si>
   <si>
     <t>27,9%</t>
   </si>
   <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
   </si>
   <si>
     <t>24,92%</t>
   </si>
   <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
   </si>
   <si>
     <t>26,46%</t>
   </si>
   <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
   </si>
   <si>
     <t>83,79%</t>
   </si>
   <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
   </si>
   <si>
     <t>76,14%</t>
   </si>
   <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
   </si>
   <si>
     <t>80,03%</t>
   </si>
   <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
   </si>
   <si>
     <t>16,21%</t>
   </si>
   <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
   </si>
   <si>
     <t>23,86%</t>
   </si>
   <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
   </si>
   <si>
     <t>19,97%</t>
   </si>
   <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
   </si>
   <si>
     <t>75,98%</t>
   </si>
   <si>
-    <t>72,16%</t>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por revisión o chequeo en 2016 (Tasa respuesta: 49,15%)</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por revisión o chequeo en 2023 (Tasa respuesta: 58,54%)</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
   </si>
   <si>
     <t>79,26%</t>
   </si>
   <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
   </si>
   <si>
     <t>20,74%</t>
   </si>
   <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por revisión o chequeo en 2015 (Tasa respuesta: 49,15%)</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
   </si>
   <si>
     <t>79,87%</t>
   </si>
   <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
   </si>
   <si>
     <t>20,13%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por revisión o chequeo en 2023 (Tasa respuesta: 58,54%)</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
   </si>
 </sst>
 </file>
@@ -1740,7 +1740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4FA36BC-0861-46F3-9FA6-48A881AAF066}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5BB208D-D717-4F16-BC9B-BF085BD0A7E5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2329,13 +2329,13 @@
         <v>56876</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>83</v>
@@ -2344,7 +2344,7 @@
         <v>49486</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>72</v>
@@ -2380,13 +2380,13 @@
         <v>20993</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>32</v>
@@ -2395,7 +2395,7 @@
         <v>19722</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>80</v>
@@ -2803,7 +2803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76479CD3-200D-4345-9F67-C8E4F932C862}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC24B6F0-C828-4A17-93B5-FAD7101C80B7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3273,7 +3273,7 @@
         <v>167</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3288,13 +3288,13 @@
         <v>24652</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H11" s="7">
         <v>62</v>
@@ -3303,13 +3303,13 @@
         <v>39788</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M11" s="7">
         <v>99</v>
@@ -3318,13 +3318,13 @@
         <v>64440</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,13 +3392,13 @@
         <v>57501</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H13" s="7">
         <v>87</v>
@@ -3407,13 +3407,13 @@
         <v>56335</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M13" s="7">
         <v>176</v>
@@ -3422,13 +3422,13 @@
         <v>113836</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3443,13 +3443,13 @@
         <v>22252</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H14" s="7">
         <v>29</v>
@@ -3458,13 +3458,13 @@
         <v>18699</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M14" s="7">
         <v>63</v>
@@ -3473,13 +3473,13 @@
         <v>40951</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,13 +3547,13 @@
         <v>80687</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H16" s="7">
         <v>92</v>
@@ -3562,13 +3562,13 @@
         <v>70793</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M16" s="7">
         <v>201</v>
@@ -3577,13 +3577,13 @@
         <v>151479</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,13 +3598,13 @@
         <v>15614</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -3613,13 +3613,13 @@
         <v>22184</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M17" s="7">
         <v>50</v>
@@ -3628,13 +3628,13 @@
         <v>37798</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3702,13 +3702,13 @@
         <v>279132</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H19" s="7">
         <v>363</v>
@@ -3717,13 +3717,13 @@
         <v>256792</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>145</v>
+        <v>219</v>
       </c>
       <c r="M19" s="7">
         <v>760</v>
@@ -3732,13 +3732,13 @@
         <v>535924</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3753,13 +3753,13 @@
         <v>88265</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H20" s="7">
         <v>144</v>
@@ -3768,13 +3768,13 @@
         <v>99229</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>154</v>
+        <v>227</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M20" s="7">
         <v>273</v>
@@ -3783,13 +3783,13 @@
         <v>187494</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3866,7 +3866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96C13853-BEF3-4004-B1FD-B6B35EBEE79F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB6E5455-207A-4B1F-A3B2-2B11FC4A8643}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3883,7 +3883,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3990,13 +3990,13 @@
         <v>13266</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -4005,13 +4005,13 @@
         <v>9783</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>25</v>
@@ -4020,13 +4020,13 @@
         <v>23049</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4041,13 +4041,13 @@
         <v>2211</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -4056,13 +4056,13 @@
         <v>5219</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -4071,13 +4071,13 @@
         <v>7430</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,13 +4145,13 @@
         <v>48627</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="H7" s="7">
         <v>54</v>
@@ -4160,13 +4160,13 @@
         <v>37610</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="M7" s="7">
         <v>117</v>
@@ -4175,13 +4175,13 @@
         <v>86237</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>254</v>
+        <v>75</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4196,13 +4196,13 @@
         <v>13207</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="H8" s="7">
         <v>28</v>
@@ -4211,13 +4211,13 @@
         <v>18228</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="M8" s="7">
         <v>46</v>
@@ -4226,13 +4226,13 @@
         <v>31435</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>264</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,13 +4300,13 @@
         <v>78290</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H10" s="7">
         <v>115</v>
@@ -4315,13 +4315,13 @@
         <v>75244</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M10" s="7">
         <v>228</v>
@@ -4330,13 +4330,13 @@
         <v>153535</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4351,13 +4351,13 @@
         <v>30302</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H11" s="7">
         <v>52</v>
@@ -4366,13 +4366,13 @@
         <v>32717</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M11" s="7">
         <v>96</v>
@@ -4381,13 +4381,13 @@
         <v>63018</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4455,13 +4455,13 @@
         <v>56288</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H13" s="7">
         <v>93</v>
@@ -4470,13 +4470,13 @@
         <v>59010</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M13" s="7">
         <v>174</v>
@@ -4485,13 +4485,13 @@
         <v>115297</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>289</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4506,13 +4506,13 @@
         <v>21862</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H14" s="7">
         <v>26</v>
@@ -4521,13 +4521,13 @@
         <v>16578</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M14" s="7">
         <v>58</v>
@@ -4536,10 +4536,10 @@
         <v>38440</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>298</v>
@@ -4640,13 +4640,13 @@
         <v>172422</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4661,13 +4661,13 @@
         <v>21847</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="H17" s="7">
         <v>32</v>
@@ -4676,13 +4676,13 @@
         <v>23715</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="M17" s="7">
         <v>62</v>
@@ -4691,13 +4691,13 @@
         <v>45562</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4765,13 +4765,13 @@
         <v>281974</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="H19" s="7">
         <v>386</v>
@@ -4780,13 +4780,13 @@
         <v>268568</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="M19" s="7">
         <v>774</v>
@@ -4795,13 +4795,13 @@
         <v>550541</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>323</v>
+        <v>106</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>166</v>
+        <v>215</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4816,13 +4816,13 @@
         <v>89428</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H20" s="7">
         <v>144</v>
@@ -4831,13 +4831,13 @@
         <v>96456</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M20" s="7">
         <v>271</v>
@@ -4846,13 +4846,13 @@
         <v>185884</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>331</v>
+        <v>114</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>174</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4929,7 +4929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8168C3-0A51-475C-8C5A-5AFD0658AB95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE8B44F4-7A79-4C36-8677-E04FCDCBCD43}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4946,7 +4946,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5053,10 +5053,10 @@
         <v>5740</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>11</v>
@@ -5068,13 +5068,13 @@
         <v>6791</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -5083,13 +5083,13 @@
         <v>12529</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5104,13 +5104,13 @@
         <v>765</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -5119,13 +5119,13 @@
         <v>2728</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -5134,13 +5134,13 @@
         <v>3494</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5208,13 +5208,13 @@
         <v>62156</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H7" s="7">
         <v>80</v>
@@ -5223,13 +5223,13 @@
         <v>52147</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="M7" s="7">
         <v>153</v>
@@ -5238,13 +5238,13 @@
         <v>114303</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5259,13 +5259,13 @@
         <v>9596</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
@@ -5274,13 +5274,13 @@
         <v>10375</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="M8" s="7">
         <v>26</v>
@@ -5289,13 +5289,13 @@
         <v>19971</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5363,13 +5363,13 @@
         <v>132320</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>214</v>
+        <v>364</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H10" s="7">
         <v>143</v>
@@ -5378,13 +5378,13 @@
         <v>102999</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>70</v>
+        <v>368</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M10" s="7">
         <v>312</v>
@@ -5393,13 +5393,13 @@
         <v>235318</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5414,13 +5414,13 @@
         <v>34630</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>221</v>
+        <v>373</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="H11" s="7">
         <v>20</v>
@@ -5429,13 +5429,13 @@
         <v>15501</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M11" s="7">
         <v>62</v>
@@ -5518,10 +5518,10 @@
         <v>89170</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>383</v>
@@ -5569,13 +5569,13 @@
         <v>22651</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="H14" s="7">
         <v>38</v>

--- a/data/trans_orig/IP19C01-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP19C01-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63969FC8-0788-40AA-B206-B0408418821E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A003E8E1-C503-42C7-900F-DA9870C2DC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BD8AF1DB-E8DE-40B4-974C-828D06324C52}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{C3BD7934-D713-43DA-AE6B-97557401FBA0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="370">
   <si>
     <t>Menores según su última visita al dentista fue por revisión o chequeo en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,1267 +68,1087 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>71,5%</t>
   </si>
   <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
   </si>
   <si>
     <t>28,5%</t>
   </si>
   <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por revisión o chequeo en 2012 (Tasa respuesta: 49,21%)</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por revisión o chequeo en 2016 (Tasa respuesta: 49,15%)</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por revisión o chequeo en 2023 (Tasa respuesta: 58,54%)</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
   </si>
   <si>
     <t>79,74%</t>
   </si>
   <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
   </si>
   <si>
     <t>20,26%</t>
   </si>
   <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por revisión o chequeo en 2012 (Tasa respuesta: 49,21%)</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
   </si>
   <si>
     <t>84,54%</t>
   </si>
   <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
   </si>
   <si>
     <t>15,46%</t>
   </si>
   <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por revisión o chequeo en 2016 (Tasa respuesta: 49,15%)</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por revisión o chequeo en 2023 (Tasa respuesta: 58,54%)</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
+    <t>20,27%</t>
   </si>
 </sst>
 </file>
@@ -1740,8 +1560,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5BB208D-D717-4F16-BC9B-BF085BD0A7E5}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18104445-E89B-4B18-8C6F-2514F1A09E1A}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1858,10 +1678,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="D4" s="7">
-        <v>13729</v>
+        <v>47353</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1873,10 +1693,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="I4" s="7">
-        <v>8490</v>
+        <v>57894</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1888,10 +1708,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>29</v>
+        <v>155</v>
       </c>
       <c r="N4" s="7">
-        <v>22218</v>
+        <v>105247</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1909,10 +1729,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>28320</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1924,10 +1744,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="I5" s="7">
-        <v>9069</v>
+        <v>24294</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1939,10 +1759,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="N5" s="7">
-        <v>9070</v>
+        <v>52614</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1960,102 +1780,102 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="D6" s="7">
-        <v>13729</v>
+        <v>75673</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="I6" s="7">
-        <v>17559</v>
+        <v>82188</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>40</v>
+        <v>231</v>
       </c>
       <c r="N6" s="7">
-        <v>31288</v>
+        <v>157861</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="D7" s="7">
-        <v>44165</v>
+        <v>74485</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="I7" s="7">
-        <v>38863</v>
+        <v>81141</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>126</v>
+        <v>242</v>
       </c>
       <c r="N7" s="7">
-        <v>83029</v>
+        <v>155626</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2064,49 +1884,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D8" s="7">
-        <v>24294</v>
+        <v>35576</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="I8" s="7">
-        <v>19250</v>
+        <v>30490</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="N8" s="7">
-        <v>43544</v>
+        <v>66066</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2115,102 +1935,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>104</v>
+        <v>174</v>
       </c>
       <c r="D9" s="7">
-        <v>68459</v>
+        <v>110061</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="I9" s="7">
-        <v>58113</v>
+        <v>111631</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>191</v>
+        <v>344</v>
       </c>
       <c r="N9" s="7">
-        <v>126573</v>
+        <v>221692</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="D10" s="7">
-        <v>81141</v>
+        <v>49486</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="I10" s="7">
-        <v>74485</v>
+        <v>56876</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>242</v>
+        <v>172</v>
       </c>
       <c r="N10" s="7">
-        <v>155626</v>
+        <v>106362</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2219,49 +2039,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D11" s="7">
-        <v>30490</v>
+        <v>19722</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="I11" s="7">
-        <v>35576</v>
+        <v>20993</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="N11" s="7">
-        <v>66066</v>
+        <v>40715</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2270,102 +2090,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="D12" s="7">
-        <v>111631</v>
+        <v>69208</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="I12" s="7">
-        <v>110061</v>
+        <v>77869</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>344</v>
+        <v>237</v>
       </c>
       <c r="N12" s="7">
-        <v>221692</v>
+        <v>147077</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D13" s="7">
-        <v>56876</v>
+        <v>60895</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="I13" s="7">
-        <v>49486</v>
+        <v>62309</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N13" s="7">
-        <v>106362</v>
+        <v>123203</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2374,49 +2194,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D14" s="7">
-        <v>20993</v>
+        <v>35094</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I14" s="7">
-        <v>19722</v>
+        <v>27734</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="N14" s="7">
-        <v>40715</v>
+        <v>62829</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2425,102 +2245,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D15" s="7">
-        <v>77869</v>
+        <v>95989</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="I15" s="7">
-        <v>69208</v>
+        <v>90043</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="N15" s="7">
-        <v>147077</v>
+        <v>186032</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>349</v>
+      </c>
+      <c r="D16" s="7">
+        <v>232218</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="7">
+        <v>390</v>
+      </c>
+      <c r="I16" s="7">
+        <v>258220</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="7">
-        <v>62309</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H16" s="7">
-        <v>79</v>
-      </c>
-      <c r="I16" s="7">
-        <v>60895</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="K16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>170</v>
+        <v>739</v>
       </c>
       <c r="N16" s="7">
-        <v>123203</v>
+        <v>490437</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2529,49 +2349,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>40</v>
+        <v>173</v>
       </c>
       <c r="D17" s="7">
-        <v>27734</v>
+        <v>118712</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="I17" s="7">
-        <v>35094</v>
+        <v>103511</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>85</v>
+        <v>328</v>
       </c>
       <c r="N17" s="7">
-        <v>62829</v>
+        <v>222224</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2580,217 +2400,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>131</v>
+        <v>522</v>
       </c>
       <c r="D18" s="7">
-        <v>90043</v>
+        <v>350930</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>124</v>
+        <v>545</v>
       </c>
       <c r="I18" s="7">
-        <v>95989</v>
+        <v>361731</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>255</v>
+        <v>1067</v>
       </c>
       <c r="N18" s="7">
-        <v>186032</v>
+        <v>712661</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>390</v>
-      </c>
-      <c r="D19" s="7">
-        <v>258220</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="A19" t="s">
         <v>106</v>
       </c>
-      <c r="H19" s="7">
-        <v>349</v>
-      </c>
-      <c r="I19" s="7">
-        <v>232218</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M19" s="7">
-        <v>739</v>
-      </c>
-      <c r="N19" s="7">
-        <v>490437</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>155</v>
-      </c>
-      <c r="D20" s="7">
-        <v>103511</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H20" s="7">
-        <v>173</v>
-      </c>
-      <c r="I20" s="7">
-        <v>118712</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="M20" s="7">
-        <v>328</v>
-      </c>
-      <c r="N20" s="7">
-        <v>222224</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>545</v>
-      </c>
-      <c r="D21" s="7">
-        <v>361731</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="7">
-        <v>522</v>
-      </c>
-      <c r="I21" s="7">
-        <v>350930</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1067</v>
-      </c>
-      <c r="N21" s="7">
-        <v>712661</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>122</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2803,8 +2467,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC24B6F0-C828-4A17-93B5-FAD7101C80B7}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55485F79-67CD-4A3E-B530-09B35819DA24}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2820,7 +2484,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2921,49 +2585,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="D4" s="7">
-        <v>8322</v>
+        <v>56853</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="I4" s="7">
-        <v>9530</v>
+        <v>50274</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="N4" s="7">
-        <v>17852</v>
+        <v>107128</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2972,49 +2636,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D5" s="7">
-        <v>4718</v>
+        <v>18558</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="I5" s="7">
-        <v>3360</v>
+        <v>25747</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="N5" s="7">
-        <v>8079</v>
+        <v>44305</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3023,102 +2687,102 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="D6" s="7">
-        <v>13040</v>
+        <v>75411</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="I6" s="7">
-        <v>12890</v>
+        <v>76021</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>29</v>
+        <v>204</v>
       </c>
       <c r="N6" s="7">
-        <v>25931</v>
+        <v>151433</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="D7" s="7">
-        <v>41952</v>
+        <v>72811</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="I7" s="7">
-        <v>47324</v>
+        <v>90670</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="M7" s="7">
-        <v>123</v>
+        <v>240</v>
       </c>
       <c r="N7" s="7">
-        <v>89276</v>
+        <v>163482</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3127,49 +2791,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="D8" s="7">
-        <v>21029</v>
+        <v>39788</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="H8" s="7">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I8" s="7">
-        <v>15197</v>
+        <v>24652</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="M8" s="7">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="N8" s="7">
-        <v>36226</v>
+        <v>64440</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3178,102 +2842,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>89</v>
+        <v>170</v>
       </c>
       <c r="D9" s="7">
-        <v>62981</v>
+        <v>112599</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="I9" s="7">
-        <v>62521</v>
+        <v>115322</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>175</v>
+        <v>339</v>
       </c>
       <c r="N9" s="7">
-        <v>125502</v>
+        <v>227922</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="D10" s="7">
-        <v>90670</v>
+        <v>56335</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="H10" s="7">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="I10" s="7">
-        <v>72811</v>
+        <v>57501</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="M10" s="7">
-        <v>240</v>
+        <v>176</v>
       </c>
       <c r="N10" s="7">
-        <v>163482</v>
+        <v>113836</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>167</v>
+        <v>92</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3282,49 +2946,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D11" s="7">
-        <v>24652</v>
+        <v>18699</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="H11" s="7">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="I11" s="7">
-        <v>39788</v>
+        <v>22252</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="M11" s="7">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="N11" s="7">
-        <v>64440</v>
+        <v>40951</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>177</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3333,102 +2997,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c r="D12" s="7">
-        <v>115322</v>
+        <v>75034</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="I12" s="7">
-        <v>112599</v>
+        <v>79753</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>339</v>
+        <v>239</v>
       </c>
       <c r="N12" s="7">
-        <v>227922</v>
+        <v>154787</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D13" s="7">
-        <v>57501</v>
+        <v>70793</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="H13" s="7">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="I13" s="7">
-        <v>56335</v>
+        <v>80687</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="M13" s="7">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="N13" s="7">
-        <v>113836</v>
+        <v>151479</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3437,49 +3101,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D14" s="7">
-        <v>22252</v>
+        <v>22184</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="H14" s="7">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I14" s="7">
-        <v>18699</v>
+        <v>15614</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="M14" s="7">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="N14" s="7">
-        <v>40951</v>
+        <v>37798</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3488,102 +3152,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D15" s="7">
-        <v>79753</v>
+        <v>92977</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="I15" s="7">
-        <v>75034</v>
+        <v>96301</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="N15" s="7">
-        <v>154787</v>
+        <v>189277</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>109</v>
+        <v>363</v>
       </c>
       <c r="D16" s="7">
-        <v>80687</v>
+        <v>256792</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="H16" s="7">
-        <v>92</v>
+        <v>397</v>
       </c>
       <c r="I16" s="7">
-        <v>70793</v>
+        <v>279132</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="M16" s="7">
-        <v>201</v>
+        <v>760</v>
       </c>
       <c r="N16" s="7">
-        <v>151479</v>
+        <v>535924</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3592,49 +3256,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="D17" s="7">
-        <v>15614</v>
+        <v>99229</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="H17" s="7">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="I17" s="7">
-        <v>22184</v>
+        <v>88265</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="M17" s="7">
-        <v>50</v>
+        <v>273</v>
       </c>
       <c r="N17" s="7">
-        <v>37798</v>
+        <v>187494</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3643,217 +3307,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>131</v>
+        <v>507</v>
       </c>
       <c r="D18" s="7">
-        <v>96301</v>
+        <v>356021</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>120</v>
+        <v>526</v>
       </c>
       <c r="I18" s="7">
-        <v>92977</v>
+        <v>367397</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>251</v>
+        <v>1033</v>
       </c>
       <c r="N18" s="7">
-        <v>189277</v>
+        <v>723418</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>397</v>
-      </c>
-      <c r="D19" s="7">
-        <v>279132</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="H19" s="7">
-        <v>363</v>
-      </c>
-      <c r="I19" s="7">
-        <v>256792</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="M19" s="7">
-        <v>760</v>
-      </c>
-      <c r="N19" s="7">
-        <v>535924</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>129</v>
-      </c>
-      <c r="D20" s="7">
-        <v>88265</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="H20" s="7">
-        <v>144</v>
-      </c>
-      <c r="I20" s="7">
-        <v>99229</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="M20" s="7">
-        <v>273</v>
-      </c>
-      <c r="N20" s="7">
-        <v>187494</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>526</v>
-      </c>
-      <c r="D21" s="7">
-        <v>367397</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="7">
-        <v>507</v>
-      </c>
-      <c r="I21" s="7">
-        <v>356021</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1033</v>
-      </c>
-      <c r="N21" s="7">
-        <v>723418</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>122</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3866,8 +3374,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB6E5455-207A-4B1F-A3B2-2B11FC4A8643}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A38855-7940-4656-975F-B667EF48C124}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3883,7 +3391,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3984,49 +3492,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="D4" s="7">
-        <v>13266</v>
+        <v>47394</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="H4" s="7">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="I4" s="7">
-        <v>9783</v>
+        <v>61892</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="M4" s="7">
-        <v>25</v>
+        <v>142</v>
       </c>
       <c r="N4" s="7">
-        <v>23049</v>
+        <v>109286</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>239</v>
+        <v>201</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,49 +3543,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="D5" s="7">
-        <v>2211</v>
+        <v>23447</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="H5" s="7">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="I5" s="7">
-        <v>5219</v>
+        <v>15418</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="M5" s="7">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="N5" s="7">
-        <v>7430</v>
+        <v>38865</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4086,102 +3594,102 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="D6" s="7">
-        <v>15477</v>
+        <v>70841</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I6" s="7">
-        <v>15002</v>
+        <v>77310</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>34</v>
+        <v>197</v>
       </c>
       <c r="N6" s="7">
-        <v>30479</v>
+        <v>148151</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="D7" s="7">
-        <v>48627</v>
+        <v>75244</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="H7" s="7">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="I7" s="7">
-        <v>37610</v>
+        <v>78290</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>254</v>
+        <v>145</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="M7" s="7">
-        <v>117</v>
+        <v>228</v>
       </c>
       <c r="N7" s="7">
-        <v>86237</v>
+        <v>153535</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>75</v>
+        <v>219</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>258</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,49 +3698,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="D8" s="7">
-        <v>13207</v>
+        <v>32717</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>261</v>
+        <v>223</v>
       </c>
       <c r="H8" s="7">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="I8" s="7">
-        <v>18228</v>
+        <v>30302</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>262</v>
+        <v>153</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="M8" s="7">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="N8" s="7">
-        <v>31435</v>
+        <v>63018</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>84</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,102 +3749,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="D9" s="7">
-        <v>61834</v>
+        <v>107961</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="I9" s="7">
-        <v>55838</v>
+        <v>108592</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>163</v>
+        <v>324</v>
       </c>
       <c r="N9" s="7">
-        <v>117672</v>
+        <v>216553</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D10" s="7">
-        <v>78290</v>
+        <v>59010</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>229</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>268</v>
+        <v>231</v>
       </c>
       <c r="H10" s="7">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="I10" s="7">
-        <v>75244</v>
+        <v>56288</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>269</v>
+        <v>232</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="M10" s="7">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="N10" s="7">
-        <v>153535</v>
+        <v>115297</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>274</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,49 +3853,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D11" s="7">
-        <v>30302</v>
+        <v>16578</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>187</v>
+        <v>238</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="H11" s="7">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="I11" s="7">
-        <v>32717</v>
+        <v>21862</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="M11" s="7">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="N11" s="7">
-        <v>63018</v>
+        <v>38440</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>282</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,102 +3904,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="D12" s="7">
-        <v>108592</v>
+        <v>75588</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>167</v>
+        <v>113</v>
       </c>
       <c r="I12" s="7">
-        <v>107961</v>
+        <v>78150</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>324</v>
+        <v>232</v>
       </c>
       <c r="N12" s="7">
-        <v>216553</v>
+        <v>153737</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="D13" s="7">
-        <v>56288</v>
+        <v>86919</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="H13" s="7">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="I13" s="7">
-        <v>59010</v>
+        <v>85503</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
       <c r="M13" s="7">
-        <v>174</v>
+        <v>230</v>
       </c>
       <c r="N13" s="7">
-        <v>115297</v>
+        <v>172422</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4503,46 +4011,46 @@
         <v>32</v>
       </c>
       <c r="D14" s="7">
-        <v>21862</v>
+        <v>23715</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="H14" s="7">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I14" s="7">
-        <v>16578</v>
+        <v>21847</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>294</v>
+        <v>259</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="M14" s="7">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="N14" s="7">
-        <v>38440</v>
+        <v>45562</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>298</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,102 +4059,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="D15" s="7">
-        <v>78150</v>
+        <v>110634</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="I15" s="7">
-        <v>75588</v>
+        <v>107350</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>232</v>
+        <v>292</v>
       </c>
       <c r="N15" s="7">
-        <v>153737</v>
+        <v>217984</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>116</v>
+        <v>386</v>
       </c>
       <c r="D16" s="7">
-        <v>85503</v>
+        <v>268568</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>300</v>
+        <v>266</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>301</v>
+        <v>267</v>
       </c>
       <c r="H16" s="7">
-        <v>114</v>
+        <v>388</v>
       </c>
       <c r="I16" s="7">
-        <v>86919</v>
+        <v>281974</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>303</v>
+        <v>269</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>304</v>
+        <v>270</v>
       </c>
       <c r="M16" s="7">
-        <v>230</v>
+        <v>774</v>
       </c>
       <c r="N16" s="7">
-        <v>172422</v>
+        <v>550541</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>186</v>
+        <v>271</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4655,49 +4163,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="D17" s="7">
-        <v>21847</v>
+        <v>96456</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>307</v>
+        <v>274</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="H17" s="7">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="I17" s="7">
-        <v>23715</v>
+        <v>89428</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>310</v>
+        <v>277</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>311</v>
+        <v>278</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="M17" s="7">
-        <v>62</v>
+        <v>271</v>
       </c>
       <c r="N17" s="7">
-        <v>45562</v>
+        <v>185884</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>194</v>
+        <v>280</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>314</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,217 +4214,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>146</v>
+        <v>530</v>
       </c>
       <c r="D18" s="7">
-        <v>107350</v>
+        <v>365024</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>146</v>
+        <v>515</v>
       </c>
       <c r="I18" s="7">
-        <v>110634</v>
+        <v>371402</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>292</v>
+        <v>1045</v>
       </c>
       <c r="N18" s="7">
-        <v>217984</v>
+        <v>736425</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>388</v>
-      </c>
-      <c r="D19" s="7">
-        <v>281974</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="H19" s="7">
-        <v>386</v>
-      </c>
-      <c r="I19" s="7">
-        <v>268568</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="M19" s="7">
-        <v>774</v>
-      </c>
-      <c r="N19" s="7">
-        <v>550541</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="A19" t="s">
         <v>106</v>
       </c>
-      <c r="P19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>127</v>
-      </c>
-      <c r="D20" s="7">
-        <v>89428</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="H20" s="7">
-        <v>144</v>
-      </c>
-      <c r="I20" s="7">
-        <v>96456</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="M20" s="7">
-        <v>271</v>
-      </c>
-      <c r="N20" s="7">
-        <v>185884</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>515</v>
-      </c>
-      <c r="D21" s="7">
-        <v>371402</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="7">
-        <v>530</v>
-      </c>
-      <c r="I21" s="7">
-        <v>365024</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1045</v>
-      </c>
-      <c r="N21" s="7">
-        <v>736425</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>122</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4929,8 +4281,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE8B44F4-7A79-4C36-8677-E04FCDCBCD43}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A9CB20-4362-4DFA-97E5-4ACB3E643A38}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4946,7 +4298,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>329</v>
+        <v>283</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5047,49 +4399,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="D4" s="7">
-        <v>5740</v>
+        <v>56586</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>330</v>
+        <v>284</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>331</v>
+        <v>285</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>286</v>
       </c>
       <c r="H4" s="7">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I4" s="7">
-        <v>6791</v>
+        <v>73625</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>332</v>
+        <v>287</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>333</v>
+        <v>288</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>334</v>
+        <v>289</v>
       </c>
       <c r="M4" s="7">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c r="N4" s="7">
-        <v>12529</v>
+        <v>130212</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>335</v>
+        <v>290</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>337</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5098,49 +4450,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D5" s="7">
-        <v>765</v>
+        <v>13180</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>338</v>
+        <v>293</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>294</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>339</v>
+        <v>295</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I5" s="7">
-        <v>2728</v>
+        <v>11624</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>340</v>
+        <v>296</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>341</v>
+        <v>297</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>342</v>
+        <v>298</v>
       </c>
       <c r="M5" s="7">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="N5" s="7">
-        <v>3494</v>
+        <v>24803</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>343</v>
+        <v>299</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>344</v>
+        <v>300</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>345</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5149,102 +4501,102 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="D6" s="7">
-        <v>6505</v>
+        <v>69766</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="I6" s="7">
-        <v>9519</v>
+        <v>85249</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>24</v>
+        <v>203</v>
       </c>
       <c r="N6" s="7">
-        <v>16023</v>
+        <v>155015</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="D7" s="7">
-        <v>62156</v>
+        <v>98574</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>346</v>
+        <v>302</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="H7" s="7">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="I7" s="7">
-        <v>52147</v>
+        <v>131887</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>349</v>
+        <v>53</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>350</v>
+        <v>305</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>351</v>
+        <v>306</v>
       </c>
       <c r="M7" s="7">
-        <v>153</v>
+        <v>312</v>
       </c>
       <c r="N7" s="7">
-        <v>114303</v>
+        <v>230460</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>352</v>
+        <v>307</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>353</v>
+        <v>308</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>354</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,49 +4605,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D8" s="7">
-        <v>9596</v>
+        <v>15159</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>355</v>
+        <v>310</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>356</v>
+        <v>311</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>357</v>
+        <v>312</v>
       </c>
       <c r="H8" s="7">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="I8" s="7">
-        <v>10375</v>
+        <v>35489</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>358</v>
+        <v>61</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>359</v>
+        <v>313</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>360</v>
+        <v>314</v>
       </c>
       <c r="M8" s="7">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="N8" s="7">
-        <v>19971</v>
+        <v>50649</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>361</v>
+        <v>315</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>362</v>
+        <v>316</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>363</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,102 +4656,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="D9" s="7">
-        <v>71752</v>
+        <v>113733</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>95</v>
+        <v>211</v>
       </c>
       <c r="I9" s="7">
-        <v>62522</v>
+        <v>167376</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>179</v>
+        <v>374</v>
       </c>
       <c r="N9" s="7">
-        <v>134274</v>
+        <v>281109</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>169</v>
+        <v>104</v>
       </c>
       <c r="D10" s="7">
-        <v>132320</v>
+        <v>76419</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>364</v>
+        <v>318</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>365</v>
+        <v>319</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>366</v>
+        <v>320</v>
       </c>
       <c r="H10" s="7">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="I10" s="7">
-        <v>102999</v>
+        <v>96507</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>367</v>
+        <v>321</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>368</v>
+        <v>322</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>369</v>
+        <v>323</v>
       </c>
       <c r="M10" s="7">
-        <v>312</v>
+        <v>206</v>
       </c>
       <c r="N10" s="7">
-        <v>235318</v>
+        <v>172926</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>370</v>
+        <v>324</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>371</v>
+        <v>325</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>372</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5408,49 +4760,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D11" s="7">
-        <v>34630</v>
+        <v>30536</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>373</v>
+        <v>327</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>374</v>
+        <v>328</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>375</v>
+        <v>329</v>
       </c>
       <c r="H11" s="7">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I11" s="7">
-        <v>15501</v>
+        <v>23740</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>376</v>
+        <v>330</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>377</v>
+        <v>331</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>378</v>
+        <v>332</v>
       </c>
       <c r="M11" s="7">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N11" s="7">
-        <v>50131</v>
+        <v>54276</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>379</v>
+        <v>333</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>380</v>
+        <v>334</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>381</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,102 +4811,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>211</v>
+        <v>142</v>
       </c>
       <c r="D12" s="7">
-        <v>166950</v>
+        <v>106955</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="I12" s="7">
-        <v>118500</v>
+        <v>120247</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>374</v>
+        <v>270</v>
       </c>
       <c r="N12" s="7">
-        <v>285449</v>
+        <v>227202</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="D13" s="7">
-        <v>89170</v>
+        <v>88287</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>73</v>
+        <v>336</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>382</v>
+        <v>337</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>383</v>
+        <v>304</v>
       </c>
       <c r="H13" s="7">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="I13" s="7">
-        <v>75158</v>
+        <v>97252</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>104</v>
+        <v>338</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>384</v>
+        <v>339</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>385</v>
+        <v>340</v>
       </c>
       <c r="M13" s="7">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="N13" s="7">
-        <v>164327</v>
+        <v>185541</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>145</v>
+        <v>341</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>386</v>
+        <v>342</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>387</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5563,49 +4915,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D14" s="7">
-        <v>22651</v>
+        <v>12892</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>80</v>
+        <v>344</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>388</v>
+        <v>311</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>389</v>
+        <v>345</v>
       </c>
       <c r="H14" s="7">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="I14" s="7">
-        <v>30128</v>
+        <v>14319</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>113</v>
+        <v>346</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>390</v>
+        <v>347</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>391</v>
+        <v>348</v>
       </c>
       <c r="M14" s="7">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="N14" s="7">
-        <v>52780</v>
+        <v>27210</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>154</v>
+        <v>349</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>392</v>
+        <v>350</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>393</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5614,102 +4966,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="D15" s="7">
-        <v>111821</v>
+        <v>101179</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I15" s="7">
-        <v>105286</v>
+        <v>111571</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="N15" s="7">
-        <v>217107</v>
+        <v>212751</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>121</v>
+        <v>460</v>
       </c>
       <c r="D16" s="7">
-        <v>94254</v>
+        <v>319866</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>394</v>
+        <v>352</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>395</v>
+        <v>353</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>396</v>
+        <v>354</v>
       </c>
       <c r="H16" s="7">
-        <v>121</v>
+        <v>473</v>
       </c>
       <c r="I16" s="7">
-        <v>90863</v>
+        <v>399272</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>397</v>
+        <v>355</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>398</v>
+        <v>356</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>399</v>
+        <v>357</v>
       </c>
       <c r="M16" s="7">
-        <v>242</v>
+        <v>933</v>
       </c>
       <c r="N16" s="7">
-        <v>185118</v>
+        <v>719137</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>400</v>
+        <v>358</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>401</v>
+        <v>359</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>402</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5718,49 +5070,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="D17" s="7">
-        <v>13521</v>
+        <v>71767</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>403</v>
+        <v>361</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>404</v>
+        <v>362</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>405</v>
+        <v>363</v>
       </c>
       <c r="H17" s="7">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="I17" s="7">
-        <v>13334</v>
+        <v>85172</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>406</v>
+        <v>364</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>408</v>
+        <v>366</v>
       </c>
       <c r="M17" s="7">
-        <v>35</v>
+        <v>191</v>
       </c>
       <c r="N17" s="7">
-        <v>26854</v>
+        <v>156939</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>409</v>
+        <v>367</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>410</v>
+        <v>368</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>411</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5769,217 +5121,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>138</v>
+        <v>554</v>
       </c>
       <c r="D18" s="7">
-        <v>107775</v>
+        <v>391633</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>139</v>
+        <v>570</v>
       </c>
       <c r="I18" s="7">
-        <v>104197</v>
+        <v>484444</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>277</v>
+        <v>1124</v>
       </c>
       <c r="N18" s="7">
-        <v>211972</v>
+        <v>876076</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>473</v>
-      </c>
-      <c r="D19" s="7">
-        <v>383640</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="H19" s="7">
-        <v>460</v>
-      </c>
-      <c r="I19" s="7">
-        <v>327957</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="M19" s="7">
-        <v>933</v>
-      </c>
-      <c r="N19" s="7">
-        <v>711597</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>97</v>
-      </c>
-      <c r="D20" s="7">
-        <v>81163</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="H20" s="7">
-        <v>94</v>
-      </c>
-      <c r="I20" s="7">
-        <v>72067</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="M20" s="7">
-        <v>191</v>
-      </c>
-      <c r="N20" s="7">
-        <v>153229</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>570</v>
-      </c>
-      <c r="D21" s="7">
-        <v>464803</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="7">
-        <v>554</v>
-      </c>
-      <c r="I21" s="7">
-        <v>400024</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1124</v>
-      </c>
-      <c r="N21" s="7">
-        <v>864826</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>122</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
